--- a/슬라이더 대본.xlsx
+++ b/슬라이더 대본.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FY24\TopGun-Prj\TopGun-Prj\Top Gun Prj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FY24\TopGun-Prj\TopGun-Prj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54DF3A9-ED2F-4681-A96F-8771968CB4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760931E3-BD3D-4639-99B3-951A12B890DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{91175FD6-C2E5-4392-86CC-4BE66B063BA1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91175FD6-C2E5-4392-86CC-4BE66B063BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="429">
   <si>
     <t>--- 1phase---</t>
   </si>
@@ -59,15 +59,9 @@
     <t>최근, Pre-charge Relay tester 프로그램을 담당하였습니다.</t>
   </si>
   <si>
-    <t>여기서 DL950이 사용되었습니다.</t>
-  </si>
-  <si>
     <t>뒤에 소개 드리겠습니다.</t>
   </si>
   <si>
-    <t>주로 자동차 파워 계통을 담당하였습니다. Li-ion Battery 충방전 시험기와 BDU 시험기 그리고 ICCB 시험기 등이 있습니다.</t>
-  </si>
-  <si>
     <t>--- 2phase---</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>고객사는 현대자동차 ES 규격의 시험기를 요구하였습니다.</t>
   </si>
   <si>
-    <t>그것들은 Durability test, Environment reliability test and Mechanical reliability test 등이었습니다.</t>
-  </si>
-  <si>
     <t>---4phase---</t>
   </si>
   <si>
@@ -119,21 +110,12 @@
     <t>전기차의 배터리 전압은 보통 400V 정도이며, 배터리 용량은 60kWh가 넘습니다.</t>
   </si>
   <si>
-    <t>파워 릴레이 어셈블리는 메인 릴레이, 프리 차지 릴레이, 프리 차지 레지스터, 배터리 전류 센서, 고전압 배터리 히터 릴레이로 구성되어 있으며, 부스 바(Bus bar)를 통해서 배터리 팩과 연결되어 있다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRA는 전기모터를 구동 시키거나 고전압 배터리를 충전할 때 사용됩니다. </t>
   </si>
   <si>
     <t>이는 릴레이 융착이나 파손되는 상황을 발생 시키기도 합니다.</t>
   </si>
   <si>
-    <t>프리차지릴레이 동작은 프리차지ON 메인릴레이(-)ON 캐패시터충전 메인릴레이(+)ON 프리차리릴레이OFF 순서입니다.</t>
-  </si>
-  <si>
-    <t>이 작동은 고전압 배터리와 차량의 캐패시터 사이의 전위차를 감소시켜 회로를 보호할 수 있습니다.</t>
-  </si>
-  <si>
     <t>---5phase---</t>
   </si>
   <si>
@@ -149,12 +131,6 @@
     <t>DUT의 측정포인트는 전압 3포인트, 전류 2포인트 그리고 온도 1포인트 측정이다.</t>
   </si>
   <si>
-    <t>보시는 바와 같이, 전압측정을 위해 720268 모듈을 사용하였고, 전류측정을 위해 701251 그리고 온도측정을 위해 701265 등으로 구성하였다.</t>
-  </si>
-  <si>
-    <t>특히, 우리는 800V의 고전압 측정을 해야만 했다. 고전압 채널은 두 포인트 이상이었고 채널간 절연이 필요하였다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">그것은 고전압 모듈 720268으로 커버 가능하였다. </t>
   </si>
   <si>
@@ -185,33 +161,18 @@
     <t>각 채널별로 수직축 간격을 다르게 세팅하였다.</t>
   </si>
   <si>
-    <t xml:space="preserve">또한, 시간 간겨과 Record Length 그리고 측정 아이템 등을 각 시험 모드 별로 다르게 구성하였다. </t>
-  </si>
-  <si>
-    <t>그들은 현대 ES 규격 시험을 요구하였다.  이것은 현대 ES 규격 시험 중 하나의 시험 절차이다.</t>
-  </si>
-  <si>
     <t>챔버 온도를 변화 시켜가면서 Relay 작동을 ON/OFF 하는 것이다.</t>
   </si>
   <si>
-    <t>Relay는 챔버 내부에 위치합니다. DUT의 내구시험, 환경시험 그리고 메카니컬 시험 등을 수행합니다.</t>
-  </si>
-  <si>
     <t>챔버는 -40도에서 60도 사이사이클링 동작을 합니다.</t>
   </si>
   <si>
-    <t>이것은 단순히 ES시험 중 하나입니다. 샘플의 메카니컬 시험을 위해 다른 챔버를 사용합니다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">DL950은 트리거를 준비합니다. </t>
   </si>
   <si>
     <t>이런 커맨드가 전송됩니다.</t>
   </si>
   <si>
-    <t>파워장치를 사용하여 릴레이가 구동되면 트리거된 신호들을 수집할 수 있습니다. PC는 전송 받은 데이터로 ES 규격시험을 수행합니다.</t>
-  </si>
-  <si>
     <t>---7phase---</t>
   </si>
   <si>
@@ -224,15 +185,6 @@
     <t>DL950은 랙시스템에 통합되었습니다.</t>
   </si>
   <si>
-    <t>DL950의 데이터는 PC로 전송되어 ES규격시험을 하는 것입니다.</t>
-  </si>
-  <si>
-    <t>DL950 장비 한대 당, 전압 모듈 2개, 전류모듈 1개 그리고 온도 모듈 2개가 사용되었습니다.</t>
-  </si>
-  <si>
-    <t>그리고 전류 프로브로 702916이 사용되었습니다. 0.5A, 5A, 30A 스케일로 변경하여 DUT 전류 값을 확인할 수 있었습니다.</t>
-  </si>
-  <si>
     <t>---8phase---</t>
   </si>
   <si>
@@ -248,27 +200,9 @@
     <t>전압모듈 2개, 전류 모듈 1개를 사용했습니다.</t>
   </si>
   <si>
-    <t>시험 항목 중 80A CC Mode 시험이 있습니다. 이를 대응하기 위해 701930 전류프로브를 사용하였습니다.</t>
-  </si>
-  <si>
     <t>---9phase---</t>
   </si>
   <si>
-    <t>개발이 완료되고 납품을 위해 패킹된 상태입니다.</t>
-  </si>
-  <si>
-    <t>개발과정에서 많은 샘플들이 파괴되었습니다.</t>
-  </si>
-  <si>
-    <t>대부분 릴레이를 제대로 핸들링 하지 못해서 발생했습니다.</t>
-  </si>
-  <si>
-    <t>파워장치도 예외는 아니었습니다.</t>
-  </si>
-  <si>
-    <t>결선의 오류로 여러 번 시행착오가 발생하였습니다.</t>
-  </si>
-  <si>
     <t>---10phase---</t>
   </si>
   <si>
@@ -865,109 +799,671 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The PRA consists of a main relay, pre-charge relay, pre-charge resistor, battery current sensor, and high-voltage battery heater relay, and is connected to the battery pack through a bus bar.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">이렇게 높은 전력을 제어하는 역할은 PRA(Power Relay Assembly)가 담당한다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The PRA (Power Relay Assembly) is responsible for controlling high power.</t>
-  </si>
-  <si>
-    <t>고전압릴레이를 제어 순간에는, 인버터 및 내부 커패시터와 고전압 배터리의 전위차로 인하여 돌입전류 및 스파크가 발생합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EPR은 이러한 위험성을 막기 위한 목적으로 사용된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EPR, a component of PRA, is used to prevent these risks.</t>
-  </si>
-  <si>
-    <t>The operation of the EPR can protect the circuit by reducing the potential difference between the high voltage battery and the vehicle's capacitors.</t>
-  </si>
-  <si>
-    <t>In particular, we had to measure high voltage of 800V. The high voltage channel had more than two points and required isolation between channels.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>As you can see, we used the 720268 module for voltage measurement, 701251 for current measurement, and 701265 for temperature</t>
-  </si>
-  <si>
-    <t>The measurement points of the DUT are 3 voltage points, 2 current points, and 1 temperature point.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Considering the measurement of signals such as voltage, current, and temperature and the measurements expandability, we proposed the DL950.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>During that period, we need to obtain data reliably.</t>
-  </si>
-  <si>
     <t>The DUT had different signal levels at the input and output terminals.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The vertical axis interval was set differently for each channel.</t>
-  </si>
-  <si>
-    <t>Also, the time interval, record length, and measurement items were configured differently for each test mode.</t>
-  </si>
-  <si>
-    <t>They requested a HYUNDAI ES test. This process is one of the test procedures of the modern ES standard test.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is to turn the relay operation ON/OFF while cycling the chamber temperature.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The relay is located inside the chamber. It performs duribility test, environmental test, and mechanical test of the DUT.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When the relay is driven using the power device, the triggered signals can be collected. The PC runs the application together with the DL950.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In my project, a total of 3 DL950s were used.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The DL950 is integrated into the rack system.</t>
-  </si>
-  <si>
-    <t>The data of DL950 is transferred to PC and ES standard test is performed.</t>
-  </si>
-  <si>
-    <t>And 702916 was used as a current probe. By changing to 0.5A, 5A, and 30A scale, we were able to check the current value of the DUT.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is an duribility test equipment.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This test operates by switching 6 channels.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There is an 80A CC Mode test among the test items. In this range, the 701930 current probe was used.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Most of them were caused by not handling the relay properly. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The power device is too.</t>
-  </si>
-  <si>
-    <t>There were many trial and errors due to wiring mistakes.</t>
+    <t>현재 영업쪽에서 진행 검토 중인 JOB들은 다음과 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>These are the issues currently being worked on in the sales department. The JOBs are as follows.</t>
+  </si>
+  <si>
+    <t>It is a physical layer analysis function for CAN CAN FD.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There were cases where third-party products (Hioki) were recently purchased.</t>
+  </si>
+  <si>
+    <t>It would be nice to have an editing function for the order and location of the displayed measure items.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: It feels a little smaller than the DLM series. Please consider expanding the screen size.</t>
+  </si>
+  <si>
+    <t>트리거 기능과 Continuous 기능을 혼합하여 사용하였으면 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In particular, activating the zoom function and adjusting the time axis range is important for waveform analysis. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For example, temperature measurement is an important factor. It is necessary in emergency situations such as fire event.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I would like more LabVIEW driver support and application examples.</t>
+  </si>
+  <si>
+    <t>It would be good news for global LabVIEW engineer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recently, I developed Precharge Relay Tester.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>they are a first-tier vendor for Hyundai Motors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main customers are Hyundai, Kia, and GM.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The client requested test way that complies with Hyundai Motor Company ES standards.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the EPR first.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPR is used to prevent these risks. It is a compoenet of the PRA.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We chose the DL950 as a suitable instrument for DUT testing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This means that can handle various physical signals.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this test takes a lot of time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>During test, we need to obtain DUT data stably.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The vertical division was set differently for each channel to get data big and small.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They have 3 mode test. There are resistor, capacitor and short test mode.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is to control the relay operation ON/OFF while cycling chamber temperature.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This command is sent from program.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This project, We used DL950 3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The DL950 is integrated into the rack system like this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 temperature modules are used and mounted on the sample surface individually.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This lab was filled with chambers and integrated other systems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T&amp;M System Department integrates many measurement instruments.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL950 is very strong against noise. Also, it has strengths such as isolation between channels, synchronization of multi-channel signal, and analysis function.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We will seriously consider the DL950 for system applications to replace our NI DAQ.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samsung sales part is proposing a measurement system with 48 current channels (current capacity class A).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They have DL950 and plan to build it by (just) adding modules. (System proposal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It is used for semiconductor completion test (looping test) and operation test for 2 days. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">POSCO is reviewing 2 units. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Since it cannot be handled by oscilloscope to get the signals. And they needed DAQ function. So DL950 was proposed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is to monitor and analysis voltage, current, and frequency, etc.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyeyang Electric is reviewing 1 unit, and it will be used in applications for sun-loop motor test.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---Request for YMI Product---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The next is the request for YMI.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> We would like the DL950 to have physical layer analysis, like oscilloscope DLM series. I know they have CAN analisys function.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it will be able to expand the sales opporunities.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is a built-in printer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: In the past, Scopecoders had a built-in printer. so we could check the measurement results by printing them out on paper immediately after measuring on site.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recently, since there is no printer function. it is difficult to check them on site right away after test done.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In particular, Hyundai Heavy Industries used to check the result on site with paper, but since it does not work with the DL950. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to use the function like OTDR. I know that OTDR can use an external printer. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There was the same needs that WT1800R did not have a printer function, which was inconvenient.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think the market size of the maintenance is very big.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>However, the absence of a printer is causing the market to be lost. We need a printer that is easy to use.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We would like to add USB C interface. (Director Lee Ji-hoon)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>: Theses days, VGA interface is not used. Please consider changing VGA port to HDMI.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>External (hard) HDDs and SSDs also use USB C ports a lot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL950 should also support USB C ports.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We need to impove this interface for technology trend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is sorting function of the items.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currently, when you press the measure key to display.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They are displayed on the screen only in a set order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We would like to define groupings by channel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can use it by getting the power from power bank or a vehicle inverter, but it is (too) heavy and inconvenient.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If DL950 has a DC power output function, it can be used conveniently for various applications.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When data is received through PC programming, the DL950 change the mode remote.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>At this time, the main body keys are locked, as a result, operation is impossible.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depending on the user's needs, additional function can be used while communicating with the PC.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I would like to use other functions including the zoom function with remote mode.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can't obtain any data while waiting for the trigger. (I did not know all the functions, but it was a little inconvenient.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When waiting for the trigger, data collection of other measurement modules is impossible.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also,we (just) might monitor the temperature trend only real-time. However, data collection is impossible while waiting for the trigger channel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to use a mixture function of the trigger and the continuous.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We need LabVIEW drivers more for DL950.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL950 LabVIEW driver was not enough and hard to develop (application).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is able to help development schedule and improves the accessibility of DL950 for LabVIEW.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It has the following specifications. It looks like this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is EPR. It is Electronic Pre-Charge Relay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They asked us to develop the test system for this sample.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRA controls the power supply for the EV battery.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This event can cause relay fusion or damage for main relay and other components.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">High voltage module 720268 could cover this sepec. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The DL950 has advantage of being able to mount multiple modules.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">파워장치를 사용하여 릴레이가 구동되면 트리거된 신호들을 수집할 수 있습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What you see this(now) is a mechanical environment test system.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We hope this will help increase our marketing effectiveness. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello. I am Jeong Seung-bae.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm going to introduce this project later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주로 자동차 파워 계통을 담당하였습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Li-ion Battery 충방전 시험기와 BDU 시험기 그리고 ICCB 시험기 등이 있습니다.</t>
+  </si>
+  <si>
+    <t>I was mainly in charge of the automobile power system.</t>
+  </si>
+  <si>
+    <t>Self introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Woojin Industry is our customer. We provided test solution for pre-chage relay.</t>
+  </si>
+  <si>
+    <t>여기서 DL950 3대를 사용하였습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For this project we provided three DL950s.</t>
+  </si>
+  <si>
+    <t>There are Li-ion Battery charge/discharge testers, BDU testers, and ICCB testers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer Information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리 수주 금액은 6억 1천 500만원이었습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our order amount was 615 million won.</t>
+  </si>
+  <si>
+    <t>DUT(Device Under Test) Specifications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the EPR?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">파워 릴레이 어셈블리는 메인 릴레이, 프리 차지 릴레이, 프리 차지 레지스터, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The PRA consists of main relay, pre-charge relay, pre-charge resistor </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고전압릴레이를 제어 순간에는, 인버터 및 내부 커패시터와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고전압 배터리의 전위차로 인하여 돌입전류 및 스파크가 발생합니다.</t>
+  </si>
+  <si>
+    <t>At the moment of controlling main relay, there are some event like inrush current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This action can protect the circuit by reducing the potential voltage difference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> between the high voltage battery and the vehicle's capacitors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It consists of BMS, battery modules, Safety Plug, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooling system, and PRA(Power Relay Assembly).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The battery voltage of an electric vehicle is usually around 400V, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and the battery capacity is over 60kWh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">배터리 전류 센서, 고전압 배터리 히터 릴레이로 구성되어 있으며, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부스 바(Bus bar)를 통해서 배터리 팩과 연결되어 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">and battery current sensor and it is connected </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to the battery pack through a bus bar.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> and sparks due to the potential difference </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>between internal capacitor and the high voltage battery.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프리차지릴레이 동작은 프리차지ON 메인릴레이(-)ON </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐패시터충전 메인릴레이(+)ON 프리차리릴레이OFF 순서입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The sequenceof precharge relay operation is like this. Precharge ON first, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">and then main relay (-) ON, after charging the capacitor and </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>then main relay (+) ON, last sequence is precharge relay OFF.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이 작동은 고전압 배터리와 차량의 캐패시터 사이의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전위차를 감소시켜 회로를 보호할 수 있습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL950 Modules for DUT test solution </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The measurement points of the DUT are voltage 3, current 2, and temperature 1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보시는 바와 같이, 전압측정을 위해 720268 모듈을 사용하였고, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류측정을 위해 701251 그리고 온도측정을 위해 701265 등으로 구성하였다.</t>
+  </si>
+  <si>
+    <t>As you can see, we used the 720268 module for voltage measurement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, 701251 for current measurement, and 701265 for temperature</t>
+  </si>
+  <si>
+    <t>특히, 우리는 800V의 고전압 측정을 해야만 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고전압 채널은 두 포인트 이상이었고 채널간 절연이 필요하였다.</t>
+  </si>
+  <si>
+    <t>In particular, we had to measure high voltage up to 800V.</t>
+  </si>
+  <si>
+    <t>We considered measuring signals such as voltage, current, temperature,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL950 Solution for ES Test of High Voltage Relay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또한, 시간 간겨과 Record Length 그리고 측정 아이템 등을</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 각 시험 모드 별로 다르게 구성하였다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also, the time division, record length, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and measurement items were configured differently for each test mode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그들은 현대 ES 규격 시험을 요구하였다.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이것은 현대 ES 규격 시험 중 하나의 시험 절차이다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This process is one of the test procedures for the ES standard.</t>
+  </si>
+  <si>
+    <t>They requested HYUNDAI ES test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relay는 챔버 내부에 위치합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The DUT is located inside the chamber. </t>
+  </si>
+  <si>
+    <t>The moment the DUT relay is driven by the Vdd signal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We can catch the trigger signal and that time, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we can obtain the syschronization other signal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High voltage measurement and insulation, data synchronization, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(etc). are the key points of the DL950.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> The high voltage channel had more than two points </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and required isolation between channels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그것들은 Durability test, Environment reliability test </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and Mechanical reliability test 등이었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> and there were some important factors such as system scalability.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> So we proposed the DL950.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mechanical &amp; Environment Test, 2EA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL950 장비 한대 당, 전압 모듈 2개, 전류모듈 1개 그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리고 온도 모듈 2개가 사용되었습니다.</t>
+  </si>
+  <si>
+    <t>Voltage modules 2, current module 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, and temperature modules 1 were mounted on the DL950.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그리고 전류 프로브로 702916이 사용되었습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5A, 5A, 30A 스케일로 변경하여 DUT 전류 값을 확인할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>By changing the scale, we were able to check the difference current level.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">And 702916 was used as a current probe. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Durability Test, 1EA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is an duribility test system.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This system is operated by switching  6 channels DUT.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 항목 중 80A CC Mode 시험이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The test items include 80A CC mode test. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this range, 701930 current probe was used.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이를 대응하기 위해 701930 전류프로브를 사용하였습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System solutions for installed customer sites</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -975,141 +1471,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Our system is guaranteed to operate stably for a long time. It will give deep trust to our customers.</t>
-  </si>
-  <si>
-    <t>현재 영업쪽에서 진행 검토 중인 JOB들은 다음과 같습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>These are the issues currently being worked on in the sales department. The JOBs are as follows.</t>
-  </si>
-  <si>
-    <t>They have DL950 and plan to build it by adding modules. (System proposal)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is used for semiconductor completion test (looping test) and is in operation test for about 2 days. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Since it cannot be handled by oscilloscope, DAQ functions are needed, so DL950 was proposed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This is equipment that monitors and analyzes voltage, current, and frequency, etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSCO is reviewing 2 units. </t>
-  </si>
-  <si>
-    <t>The following is what we request from YMI.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is a physical layer analysis function for CAN CAN FD.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> I think it will be able to expand the sales base even more.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> We would like the DL950 to have physical layer analysis, like the CAN/CANFD analysis function of an oscilloscope. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>: In the past, Scopecoders had a built-in printer. so we could check the measurement results by printing them out on paper right after measuring on site.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Now, since the built-in printer is not supported. it is difficult to check them on site right away.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">In particular, Hyundai Heavy Industries used to check on site with paper, but since it does not work with the DL950. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There were cases where third-party products (Hioki) were recently purchased.</t>
-  </si>
-  <si>
-    <t>I would like it if you could install an external printer driver like an OTDR so that it can be used.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There was the same demand that the WT1800R did not have a printer function, which was inconvenient.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I think the market size that can sell the DL950 in the maintenance market is larger.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We would like to see USB C interface support. (Director Lee Ji-hoon)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>: Theses days, VGA monitor output is not used. Please consider changing to HDMI.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It would be nice to have an editing function for the order and location of the displayed measure items.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I would like to be able to group-user defined by channel.</t>
-  </si>
-  <si>
-    <t>Currently, when you press the measure key to display values.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>, they are displayed on the screen only in a set order.</t>
-  </si>
-  <si>
-    <t>we can use it by getting the power from a power bank or a vehicle inverter, but it is heavy and inconvenient.</t>
-  </si>
-  <si>
-    <t>: It feels a little smaller than the DLM series. Please consider expanding the screen size.</t>
-  </si>
-  <si>
-    <t>트리거 기능과 Continuous 기능을 혼합하여 사용하였으면 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Depending on the user's needs, additional features can be used while communicating with the PC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In particular, activating the zoom function and adjusting the time axis range is important for waveform analysis. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I would like to use other functions including the zoom function in remote mode.</t>
-  </si>
-  <si>
-    <t>For example, temperature measurement is an important factor. It is necessary in emergency situations such as fire event.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>we might just monitor the temperature trend real-time. However, data collection is not possible while waiting for the trigger of the other channel like voltage channel.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I want to use a mixture of the trigger function and the continuous function.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The DL950 LabVIEW driver is not enough to hande all functions.</t>
-  </si>
-  <si>
-    <t>I would like more LabVIEW driver support and application examples.</t>
-  </si>
-  <si>
-    <t>This reduces development effort and improves the accessibility of the DL950 for LabVIEW engineer.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It would be good news for global LabVIEW engineer.</t>
+    <t>Our system is guaranteed to operate stably for a long time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For us, it was an opportunity to introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> a new integrated solution with the DL950.</t>
+  </si>
+  <si>
+    <t>It will give deep trust to our customers.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1493,7 @@
   <numFmts count="1">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1162,15 +1535,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1185,9 +1581,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -1199,7 +1604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,7 +1623,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1538,737 +1967,898 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B4:AD111"/>
+  <dimension ref="A1:AB140"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="160" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="I3" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="I5" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="I7" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="I9" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="I11" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>343</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="1"/>
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X36" s="1"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="I40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="I47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>250</v>
+      </c>
+      <c r="I49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>351</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="I54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="X10" s="1"/>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="I58" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>353</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="I63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="I65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>251</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="G27" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y28" s="1"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD29" s="1"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>368</v>
+      </c>
+      <c r="I68" s="12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="I79" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="I83" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+      <c r="I85" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>386</v>
+      </c>
+      <c r="I86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>387</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="I88" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
+      <c r="I90" s="5"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>390</v>
+      </c>
+      <c r="I91" s="5"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>276</v>
-      </c>
-      <c r="H40" s="3" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="J49" s="3" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>50</v>
+      </c>
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>55</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="12" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>38</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>40</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>45</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>46</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>47</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B66" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B68" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>50</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>52</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>54</v>
-      </c>
-      <c r="F75" s="3" t="s">
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="12" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>55</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>58</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>60</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B85" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>66</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>67</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>68</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B94" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>71</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>72</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>74</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>75</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>77</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
-        <v>78</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>79</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B109" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B111" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2295,87 +2885,87 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2">
         <v>150420299.91999999</v>
@@ -2383,346 +2973,346 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2739,548 +3329,548 @@
   </sheetPr>
   <dimension ref="B3:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>304</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>311</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="H45" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>323</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="3" t="s">
-        <v>331</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B81" s="1" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>337</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B92" s="3" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>339</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3299,282 +3889,282 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/슬라이더 대본.xlsx
+++ b/슬라이더 대본.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\FY24\TopGun-Prj\TopGun-Prj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760931E3-BD3D-4639-99B3-951A12B890DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F884A9FC-4A46-43A8-AB2F-871E751E40A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{91175FD6-C2E5-4392-86CC-4BE66B063BA1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{91175FD6-C2E5-4392-86CC-4BE66B063BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="502">
   <si>
     <t>--- 1phase---</t>
   </si>
@@ -101,18 +101,6 @@
     <t>EPR에 대하여 먼저 알아보겠습니다.</t>
   </si>
   <si>
-    <t>지금 보시는 것이 전기자동차의 고전압 배터리 시스템 어셈블리 입니다.</t>
-  </si>
-  <si>
-    <t>BMS, 배터리모듈, Safety Plug와 Cooling 시스템 그리고 PRA로 구성되어 있습니다.</t>
-  </si>
-  <si>
-    <t>전기차의 배터리 전압은 보통 400V 정도이며, 배터리 용량은 60kWh가 넘습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRA는 전기모터를 구동 시키거나 고전압 배터리를 충전할 때 사용됩니다. </t>
-  </si>
-  <si>
     <t>이는 릴레이 융착이나 파손되는 상황을 발생 시키기도 합니다.</t>
   </si>
   <si>
@@ -128,9 +116,6 @@
     <t>고전압 측정과 절연, 데이터 동기화 등은 DL950의 강력한 장점이다.</t>
   </si>
   <si>
-    <t>DUT의 측정포인트는 전압 3포인트, 전류 2포인트 그리고 온도 1포인트 측정이다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">그것은 고전압 모듈 720268으로 커버 가능하였다. </t>
   </si>
   <si>
@@ -140,9 +125,6 @@
     <t>이것은 다양한 신호를 핸들링 할 수 있다는 의미이다.</t>
   </si>
   <si>
-    <t>전압, 전류 그리고 온도 등의 신호 측정과 향후 측정의 확장성을 고려하여 DL950을 제안하였다.</t>
-  </si>
-  <si>
     <t>---6phase---</t>
   </si>
   <si>
@@ -212,12 +194,6 @@
     <t>본 연구실은 챔버와 통합시스템으로 가득 차 있었습니다.</t>
   </si>
   <si>
-    <t>우리에게는 DL950으로 통합된 솔루션을 새롭게 선보일 수 있는 기회였습니다.</t>
-  </si>
-  <si>
-    <t>장시간 동안 안정된 데이터 처리와 재현성은 고객에게 깊은 신뢰로 다가 설 것입니다.</t>
-  </si>
-  <si>
     <t>이는 곧 마케팅의 효과로 이어질 수 있을 것이라 예상합니다.</t>
   </si>
   <si>
@@ -443,12 +419,6 @@
     <t>T&amp;M System 에서는 많은 측정장치들을 통합하고 있습니다.</t>
   </si>
   <si>
-    <t xml:space="preserve">DL950은 노이즈에 강합니다. 또한, 채널 간 절연 그리고 여러 채널 신호측정 동기화, 분석기능 등이 강점입니다. </t>
-  </si>
-  <si>
-    <t>우리는 DL950이 NI DAQ 제품들을 대체하여 SYSTEM 어플리케이션에 적극 검토할 것 입니다.</t>
-  </si>
-  <si>
     <t>---Sales opportunity of DL950 1---</t>
   </si>
   <si>
@@ -461,39 +431,21 @@
     <t>스테츠칩팩코리아는 1대 검토 중입니다.</t>
   </si>
   <si>
-    <t>반도체 완성테스트(루핑테스트)에 사용되고 2일정도 운영시험입니다. 오실로스코프로 대응 불가하여 DAQ 기능들이 필요하여 DL950으로 제안하였습니다.</t>
-  </si>
-  <si>
     <t>포스코는 2대 검토 중입니다.</t>
   </si>
   <si>
     <t xml:space="preserve">전기품질모니터링 전압, 전류 그리고 주파수 등을 모니터링하고 분석하는 장비입니다. </t>
   </si>
   <si>
-    <t>계양전기 1대 검토 중이며, 자동차 선푸프의 모터를 시험하는 어플리케이션에 구성될 예정입니다.</t>
-  </si>
-  <si>
     <t>---Sales opportunity of DL950 2---</t>
   </si>
   <si>
     <t>다음은 YMI에게 요구하는 내용입니다.</t>
   </si>
   <si>
-    <t xml:space="preserve"> : 오실로스코프의 CAN/CANFD 분석 기능처럼 DL950에서도 물리층 분석 되었으면 합니다. 판매층을 더욱 확대할 수 있을 거 같습니다.</t>
-  </si>
-  <si>
     <t>내장 프린터 기능입니다.</t>
   </si>
   <si>
-    <t xml:space="preserve"> : 과거 스코프코더에는 프린터가 내장되어 있어서, 현장에서 측정 후 바로 종이로 프린트하여 측정 내용을 확인할 수 있었습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  지금은 내장 프린터가 없어진 관계로, 현장에서 바로 확인이 어렵습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  특히 현대중공업에서는 현장에서 종이로 확인하였는데, DL950에는 안되기 때문에, 최근 타사 제품(히오키)으로 구매한 경우도 있었습니다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">  OTDR 처럼 외장형 프린터 드라이버를 설치하여 사용할 수 있도록 해주시면 좋겠습니다.</t>
   </si>
   <si>
@@ -503,9 +455,6 @@
     <t xml:space="preserve">  메인터넌스 시장에서 DL950을 팔수 있는 시장 사이즈가 더 크다고 생각됩니다. </t>
   </si>
   <si>
-    <t xml:space="preserve">  하지만 프린터의 부재로 시장을 놓치고 있습니다. 심플하게 설정하고 출력할 수 있는 프린터 기능이 필요합니다. </t>
-  </si>
-  <si>
     <t>무게에 대한 사항입니다. 조금 마이너한 사항일 수 있습니다.</t>
   </si>
   <si>
@@ -521,15 +470,6 @@
     <t xml:space="preserve"> : 최근에는 VGA 모니터 출력 등을 사용하지 않는다. HDMI 변경도 검토해주십시오.</t>
   </si>
   <si>
-    <t xml:space="preserve">   외장 HDD 나 SSD 도 USB C 포트를 많이 사용합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   DL950에서도 USB C 포트를 지원해야 합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   최근 기술 트렌드 반영위해 개선이 필요합니다.</t>
-  </si>
-  <si>
     <t>현재 메져키를 눌러 값을 표시하게 되면, 정해진 순서대로만 스크린에 표시됩니다.</t>
   </si>
   <si>
@@ -545,9 +485,6 @@
     <t xml:space="preserve"> : 파워 뱅크나 차량용 인버터에서 전원을 끌어 사용할 수도 있으나 무겁고 불편합니다. </t>
   </si>
   <si>
-    <t xml:space="preserve">  DL950에 DC 전원 출력 기능이 있다면, 다양한 어프리케이션에서 편리하게 사용할 수 있습니다.</t>
-  </si>
-  <si>
     <t>스크린 사이즈가 조금 더 컸으면 합니다.</t>
   </si>
   <si>
@@ -569,9 +506,6 @@
     <t xml:space="preserve">필요에 따라 PC와 통신 중에도 추가적인 기능을 사용하는 경우가 있습니다. </t>
   </si>
   <si>
-    <t>특히 줌 기능을 활성화 하여 시간축 범위조정은 파형 분석에 중요합니다. 리모트 모드에서도 줌 기능을 비롯한 다른 기능들을 사용하였으면 좋겠습니다.</t>
-  </si>
-  <si>
     <t>트리거 대기 동안 데이터 수신 불가합니다.(제가 기능을 전부다 알지 못했지만 조금 불편했던 부분이다.)</t>
   </si>
   <si>
@@ -581,9 +515,6 @@
     <t xml:space="preserve">예를 들어, 온도 측정은 중요한 요소입니다. 화재와 같은 비상상황에서 필요합니다. </t>
   </si>
   <si>
-    <t>온도 트렌드를 볼 수도 있습니다. 하지만 전압 채널의 트리거를 기다리는 동안에는 데이터 수집이 안됩니다.</t>
-  </si>
-  <si>
     <t>DL950 랩뷰 드라이버 지원이 필요합니다.</t>
   </si>
   <si>
@@ -599,9 +530,6 @@
     <t xml:space="preserve">랩뷰를 사용하는 글로벌 엔지니어에게 좋은 소식일 것입니다. </t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>T&amp;M System integrates many measurement devices.</t>
   </si>
   <si>
@@ -799,25 +727,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이렇게 높은 전력을 제어하는 역할은 PRA(Power Relay Assembly)가 담당한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EPR은 이러한 위험성을 막기 위한 목적으로 사용된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The DUT had different signal levels at the input and output terminals.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 영업쪽에서 진행 검토 중인 JOB들은 다음과 같습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>These are the issues currently being worked on in the sales department. The JOBs are as follows.</t>
-  </si>
-  <si>
     <t>It is a physical layer analysis function for CAN CAN FD.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,10 +742,6 @@
     <t>There were cases where third-party products (Hioki) were recently purchased.</t>
   </si>
   <si>
-    <t>It would be nice to have an editing function for the order and location of the displayed measure items.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>: It feels a little smaller than the DLM series. Please consider expanding the screen size.</t>
   </si>
   <si>
@@ -836,14 +749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">In particular, activating the zoom function and adjusting the time axis range is important for waveform analysis. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For example, temperature measurement is an important factor. It is necessary in emergency situations such as fire event.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I would like more LabVIEW driver support and application examples.</t>
   </si>
   <si>
@@ -851,10 +756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Recently, I developed Precharge Relay Tester.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>they are a first-tier vendor for Hyundai Motors.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -863,10 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The client requested test way that complies with Hyundai Motor Company ES standards.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>What is the EPR first.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -891,18 +788,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The vertical division was set differently for each channel to get data big and small.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>They have 3 mode test. There are resistor, capacitor and short test mode.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is to control the relay operation ON/OFF while cycling chamber temperature.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This command is sent from program.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -915,10 +800,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3 temperature modules are used and mounted on the sample surface individually.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This lab was filled with chambers and integrated other systems.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -927,22 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DL950 is very strong against noise. Also, it has strengths such as isolation between channels, synchronization of multi-channel signal, and analysis function.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We will seriously consider the DL950 for system applications to replace our NI DAQ.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Samsung sales part is proposing a measurement system with 48 current channels (current capacity class A).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>They have DL950 and plan to build it by (just) adding modules. (System proposal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">It is used for semiconductor completion test (looping test) and operation test for 2 days. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -951,18 +816,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Since it cannot be handled by oscilloscope to get the signals. And they needed DAQ function. So DL950 was proposed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This is to monitor and analysis voltage, current, and frequency, etc.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Kyeyang Electric is reviewing 1 unit, and it will be used in applications for sun-loop motor test.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> ---Request for YMI Product---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -971,10 +828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> We would like the DL950 to have physical layer analysis, like oscilloscope DLM series. I know they have CAN analisys function.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it will be able to expand the sales opporunities.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -983,34 +836,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>: In the past, Scopecoders had a built-in printer. so we could check the measurement results by printing them out on paper immediately after measuring on site.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recently, since there is no printer function. it is difficult to check them on site right away after test done.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">In particular, Hyundai Heavy Industries used to check the result on site with paper, but since it does not work with the DL950. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">I would like to use the function like OTDR. I know that OTDR can use an external printer. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>There was the same needs that WT1800R did not have a printer function, which was inconvenient.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I think the market size of the maintenance is very big.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>However, the absence of a printer is causing the market to be lost. We need a printer that is easy to use.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>We would like to add USB C interface. (Director Lee Ji-hoon)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1047,14 +880,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>We can use it by getting the power from power bank or a vehicle inverter, but it is (too) heavy and inconvenient.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If DL950 has a DC power output function, it can be used conveniently for various applications.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>When data is received through PC programming, the DL950 change the mode remote.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1063,26 +888,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Depending on the user's needs, additional function can be used while communicating with the PC.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I would like to use other functions including the zoom function with remote mode.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>We can't obtain any data while waiting for the trigger. (I did not know all the functions, but it was a little inconvenient.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>When waiting for the trigger, data collection of other measurement modules is impossible.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Also,we (just) might monitor the temperature trend only real-time. However, data collection is impossible while waiting for the trigger channel.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I want to use a mixture function of the trigger and the continuous.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1095,10 +904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This is able to help development schedule and improves the accessibility of DL950 for LabVIEW.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>It has the following specifications. It looks like this.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1115,26 +920,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This event can cause relay fusion or damage for main relay and other components.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">High voltage module 720268 could cover this sepec. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The DL950 has advantage of being able to mount multiple modules.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">파워장치를 사용하여 릴레이가 구동되면 트리거된 신호들을 수집할 수 있습니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What you see this(now) is a mechanical environment test system.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">We hope this will help increase our marketing effectiveness. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1151,19 +940,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Li-ion Battery 충방전 시험기와 BDU 시험기 그리고 ICCB 시험기 등이 있습니다.</t>
-  </si>
-  <si>
-    <t>I was mainly in charge of the automobile power system.</t>
-  </si>
-  <si>
     <t>Self introduction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Woojin Industry is our customer. We provided test solution for pre-chage relay.</t>
-  </si>
-  <si>
     <t>여기서 DL950 3대를 사용하였습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1171,10 +951,6 @@
     <t>For this project we provided three DL950s.</t>
   </si>
   <si>
-    <t>There are Li-ion Battery charge/discharge testers, BDU testers, and ICCB testers.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Customer Information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1183,9 +959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Our order amount was 615 million won.</t>
-  </si>
-  <si>
     <t>DUT(Device Under Test) Specifications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1193,10 +966,6 @@
     <t>What is the EPR?</t>
   </si>
   <si>
-    <t xml:space="preserve">파워 릴레이 어셈블리는 메인 릴레이, 프리 차지 릴레이, 프리 차지 레지스터, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">The PRA consists of main relay, pre-charge relay, pre-charge resistor </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1208,18 +977,6 @@
     <t xml:space="preserve"> 고전압 배터리의 전위차로 인하여 돌입전류 및 스파크가 발생합니다.</t>
   </si>
   <si>
-    <t>At the moment of controlling main relay, there are some event like inrush current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This action can protect the circuit by reducing the potential voltage difference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> between the high voltage battery and the vehicle's capacitors.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">It consists of BMS, battery modules, Safety Plug, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1228,13 +985,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">The battery voltage of an electric vehicle is usually around 400V, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>and the battery capacity is over 60kWh.</t>
-  </si>
-  <si>
     <t xml:space="preserve">배터리 전류 센서, 고전압 배터리 히터 릴레이로 구성되어 있으며, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1251,10 +1001,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> and sparks due to the potential difference </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>between internal capacitor and the high voltage battery.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1290,24 +1036,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The measurement points of the DUT are voltage 3, current 2, and temperature 1.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">보시는 바와 같이, 전압측정을 위해 720268 모듈을 사용하였고, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전류측정을 위해 701251 그리고 온도측정을 위해 701265 등으로 구성하였다.</t>
-  </si>
-  <si>
-    <t>As you can see, we used the 720268 module for voltage measurement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>, 701251 for current measurement, and 701265 for temperature</t>
-  </si>
-  <si>
     <t>특히, 우리는 800V의 고전압 측정을 해야만 했다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1318,10 +1050,6 @@
     <t>In particular, we had to measure high voltage up to 800V.</t>
   </si>
   <si>
-    <t>We considered measuring signals such as voltage, current, temperature,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DL950 Solution for ES Test of High Voltage Relay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1337,9 +1065,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>and measurement items were configured differently for each test mode.</t>
-  </si>
-  <si>
     <t xml:space="preserve">그들은 현대 ES 규격 시험을 요구하였다.  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1393,14 +1118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> and there were some important factors such as system scalability.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> So we proposed the DL950.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mechanical &amp; Environment Test, 2EA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1424,13 +1141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.5A, 5A, 30A 스케일로 변경하여 DUT 전류 값을 확인할 수 있었습니다.</t>
-  </si>
-  <si>
-    <t>By changing the scale, we were able to check the difference current level.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">And 702916 was used as a current probe. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1467,10 +1177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">This is the customer site Woojin Industrial. Our system has been installed. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Our system is guaranteed to operate stably for a long time.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1484,6 +1190,563 @@
   <si>
     <t>It will give deep trust to our customers.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recently, I developed Pre-charge Relay Tester.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I'm mainly in charge of the automobile powertrain.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Li-ion Battery 충방전 시험기와 BDU 시험기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 ICCB 시험기 등이 있습니다.</t>
+  </si>
+  <si>
+    <t>and (There are) Li-ion Battery charge/discharge testers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, BDU testers, and ICCB testers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woojin Industry is our customer. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We provided test solution for pre-chage relay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our order amount was 615 million won. (for DL950 solution)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They were Durability test, Environment reliability test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, and Mechanical reliability test.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can see this battery assembly. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is the high voltage battery of electric vehicle.</t>
+  </si>
+  <si>
+    <t>BMS, 배터리모듈, Safety Plug와 Cooling 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 그리고 PRA로 구성되어 있습니다.</t>
+  </si>
+  <si>
+    <t>전기차의 배터리 전압은 보통 400V 정도이며</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, 배터리 용량은 60kWh가 넘습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the moment of controlling main relay, there are some event </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">like inrush current and sparks due to the potential difference </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This event can cause relay fusion or damage other components.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DUT의 측정포인트는 전압 3포인트, 전류 2포인트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 온도 1포인트 측정이다.</t>
+  </si>
+  <si>
+    <t>The measurement points of the DUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> are voltage 3, current 2, and temperature 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전압, 전류 그리고 온도 등의 신호 측정과 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>향후 측정의 확장성을 고려하여 DL950을 제안하였다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The vertical division was set differently </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for each channel to get data big and small.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 temperature modules are used </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and mounted on the sample surface individually.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">장시간 동안 안정된 데이터 처리와 재현성은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객에게 깊은 신뢰로 다가 설 것입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체 완성테스트(루핑테스트)에 사용되고 2일정도 운영시험입니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오실로스코프로 대응 불가하여 DAQ 기능들이 필요하여 DL950으로 제안하였습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 오실로스코프의 CAN/CANFD 분석 기능처럼 DL950에서도 물리층 분석 되었으면 합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매층을 더욱 확대할 수 있을 거 같습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We would like the DL950 to have physical layer analysis, like oscilloscope DLM series.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> I know they have CAN analisys function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : 과거 스코프코더에는 프린터가 내장되어 있어서, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장에서 측정 후 바로 종이로 프린트하여 측정 내용을 확인할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">: In the past, Scopecoders had a built-in printer. so we could check the measurement results </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by printing them out on paper immediately after measuring on site.</t>
+  </si>
+  <si>
+    <t>지금은 내장 프린터가 없어진 관계로, 현장에서 바로 확인이 어렵습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recently, since there is no printer function.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> it is difficult to check them on site right away after test done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 특히 현대중공업에서는 현장에서 종이로 확인하였는데, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DL950에는 안되기 때문에, 최근 타사 제품(히오키)으로 구매한 경우도 있었습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In particular, Hyundai Heavy Industries used to check the result on site with paper, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">but since it does not work with the DL950. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 프린터의 부재로 시장을 놓치고 있습니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">심플하게 설정하고 출력할 수 있는 프린터 기능이 필요합니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">However, the absence of a printer is causing the market to be lost. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We need a printer that is easy to use.</t>
+  </si>
+  <si>
+    <t>외장 HDD 나 SSD 도 USB C 포트를 많이 사용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DL950에서도 USB C 포트를 지원해야 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 기술 트렌드 반영위해 개선이 필요합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It would be nice to have an editing function for the order </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and location of the displayed measure items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can use it by getting the power from power bank </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or a vehicle inverter, but it is (too) heavy and inconvenient.</t>
+  </si>
+  <si>
+    <t>DL950에 DC 전원 출력 기능이 있다면, 다양한 어프리케이션에서 편리하게 사용할 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If DL950 has a DC power output function,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> it can be used conveniently for various applications.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">특히 줌 기능을 활성화 하여 시간축 범위조정은 파형 분석에 중요합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리모트 모드에서도 줌 기능을 비롯한 다른 기능들을 사용하였으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>For example, temperature measurement is an important factor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is necessary in emergency situations such as fire event.</t>
+  </si>
+  <si>
+    <t>온도 트렌드를 볼 수도 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 하지만 전압 채널의 트리거를 기다리는 동안에는 데이터 수집이 안됩니다.</t>
+  </si>
+  <si>
+    <t>Also,we (just) might monitor the temperature trend only real-time.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> However, data collection is impossible while waiting for the trigger channel.</t>
+  </si>
+  <si>
+    <t>DL950 is very strong against noise. Also, it has strengths such as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DL950은 노이즈에 강합니다. 또한, 채널 간 절연 그리고 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여러 채널 신호측정 동기화, 분석기능 등이 강점입니다. </t>
+  </si>
+  <si>
+    <t>Samsung sales part is proposing a measurement system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> with 48 current channels (current capacity class A).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since it cannot be handled by oscilloscope to get the signals. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And they needed DAQ function. So DL950 was proposed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was the same needs that WT1800R did not have a printer function, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>which was inconvenient.</t>
+  </si>
+  <si>
+    <t>: It is too heavy to move to the field.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (In particular, it is heavy for female researchers to carry around.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depending on the user's needs, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>additional function can be used while communicating with the PC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In particular, activating the zoom function </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">and adjusting the time axis range is important for waveform analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can't obtain any data while waiting for the trigger. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(I did not know all the functions, but it was a little inconvenient.)</t>
+  </si>
+  <si>
+    <t>When waiting for the trigger,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> data collection of other measurement modules is impossible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is able to help development schedule </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and improves the accessibility of DL950 for LabVIEW.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리는 DL950이 NI DAQ 제품들을 대체하여 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM 어플리케이션에 적극 검토할 것 입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will seriously consider the DL950 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for system applications to replace our NI DAQ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> isolation between channels, synchronization of multi-channel signal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, and analysis function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These are the issues currently being worked </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on in the sales department. The JOBs are as follows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They have DL950 and plan to build it </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by (just) adding modules. (System proposal)</t>
+  </si>
+  <si>
+    <t>계양전기 1대 검토 중이며, 자동차 선푸프의 모터를 시험하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 어플리케이션에 구성될 예정입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyeyang Electric is reviewing 1 unit, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and it will be used in applications for sun-loop motor test.</t>
+  </si>
+  <si>
+    <t>They mainly produce spark plugs, oxygen sensors,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> glow plugs, etc.</t>
+  </si>
+  <si>
+    <t>with Hyundai Motor ES(engineering standards).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The client requested test way that complies </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지금 보시는 것이 전기자동차의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고전압 배터리 시스템 어셈블리 입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The battery voltage of an electric vehicle is </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usually around 400V, and the battery capacity is over 60kWh.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이렇게 높은 전력을 제어하는 역할은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PRA(Power Relay Assembly)가 담당. </t>
+  </si>
+  <si>
+    <t>파워 릴레이 어셈블리는 메인 릴레이,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 프리 차지 릴레이, 프리 차지 레지스터, </t>
+  </si>
+  <si>
+    <t>PRA는 전기모터를 구동 시키거나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 고전압 배터리를 충전할 때 사용됩니다. </t>
+  </si>
+  <si>
+    <t>The PRA is used to drive an electric motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> or charge a high-voltage battery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This action can protect the circuit by reducing </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and the vehicle's capacitors.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">the potential voltage difference between the high voltage battery </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전류측정을 위해 701251 그리고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 온도측정을 위해 701265 등으로 구성하였다.</t>
+  </si>
+  <si>
+    <t>As you can see, we used the 720268 module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>, and 701265 for temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> for voltage measurement, 701251 for current measurement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>such as system scalability. So we proposed the DL950.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">We considered measuring signals such as voltage, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">current, temperature, and there were some important factors </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The DL950 has advantage of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> being able to mount multiple modules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DUT had different signal levels </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at the input and output terminals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and measurement items were configured </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>differently for each test mode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They have 3 mode test. There are resistor, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacitor and short test mode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is to control the relay operation ON/OFF </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>while cycling chamber temperature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">파워장치를 사용하여 릴레이가 구동되면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">트리거된 신호들을 수집할 수 있습니다. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What you see this(now) is </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a mechanical environment test system.</t>
+  </si>
+  <si>
+    <t>0.5A, 5A, 30A 스케일로 변경하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> DUT 전류 값을 확인할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By changing the scale, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we were able to check the difference current level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the customer site Woojin Industrial. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Our system has been installed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리에게는 DL950으로 통합된 솔루션을 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새롭게 선보일 수 있는 기회였습니다.</t>
   </si>
 </sst>
 </file>
@@ -1493,7 +1756,7 @@
   <numFmts count="1">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,6 +1835,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1604,7 +1875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1618,15 +1889,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1648,6 +1910,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1967,898 +2253,1245 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB140"/>
+  <dimension ref="A1:AB231"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="160" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView view="pageBreakPreview" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A213" sqref="A213:XFD213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="9" max="9" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>349</v>
+      <c r="A1" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>336</v>
+      <c r="A3" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="I3" s="12" t="s">
-        <v>328</v>
-      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
       <c r="W4" s="1"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>62</v>
+      <c r="A5" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="I5" s="12" t="s">
-        <v>327</v>
-      </c>
       <c r="W5" s="1"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>241</v>
+      <c r="A7" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="I7" s="12" t="s">
-        <v>326</v>
-      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>64</v>
+      <c r="A9" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="I9" s="12" t="s">
-        <v>267</v>
-      </c>
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
-        <v>403</v>
-      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>264</v>
+      <c r="A11" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="I11" s="6" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>343</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>77</v>
+      <c r="A12" s="16" t="s">
+        <v>281</v>
       </c>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>344</v>
+      <c r="A13" s="9" t="s">
+        <v>282</v>
       </c>
       <c r="E13" s="3"/>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="1"/>
+      <c r="Y33" s="2"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB55" s="1"/>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A61" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A62" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I98" s="11"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="I99" s="11"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="I100" s="11"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="I101" s="11"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="17"/>
+      <c r="I102" s="11"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I104" s="11"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I105" s="11"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I106" s="11"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I107" s="11"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I108" s="11"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="I109" s="11"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="I110" s="11"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="I111" s="11"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="I112" s="11"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I113" s="11"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="I114" s="11"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="I115" s="11"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="I116" s="11"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="I117" s="11"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="I118" s="11"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="I119" s="11"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="I120" s="11"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="I121" s="11"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I122" s="11"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="I123" s="11"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="I124" s="11"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="I125" s="11"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I126" s="11"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I127" s="11"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" s="11"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="I129" s="11"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="I130" s="11"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" s="11"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I132" s="11"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="I133" s="11"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="I134" s="11"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="I135" s="11"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="I136" s="11"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="I137" s="11"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="I157" s="15"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="I158" s="15"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="I159" s="15"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="16" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="9"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="16" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="9"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G202" s="3"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="G203" s="3"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="G205" s="3"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G206" s="3"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="16" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F215" s="1"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F216" s="1"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F217" s="1"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G219" s="3"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="16" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="9" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="Y21" s="1"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="Y28" s="2"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="1"/>
-      <c r="Y29" s="2"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="X36" s="1"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB39" s="1"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I40" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="I45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="I47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>250</v>
-      </c>
-      <c r="I49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>351</v>
-      </c>
-      <c r="I51" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="I52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="I54" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I58" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>353</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="I63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>24</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="I65" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>251</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="I67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>368</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="I69" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>35</v>
-      </c>
-      <c r="I76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>36</v>
-      </c>
-      <c r="I78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>37</v>
-      </c>
-      <c r="I80" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I81" s="12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>38</v>
-      </c>
-      <c r="I82" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="I83" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>39</v>
-      </c>
-      <c r="I84" s="12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="I85" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>386</v>
-      </c>
-      <c r="I86" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>387</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="I88" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="I89" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>390</v>
-      </c>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>49</v>
-      </c>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>50</v>
-      </c>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>55</v>
-      </c>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="H132" s="3"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="H133" s="3"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="12" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="12" t="s">
-        <v>131</v>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2885,51 +3518,51 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
@@ -2939,33 +3572,33 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H17" s="2">
         <v>150420299.91999999</v>
@@ -2978,30 +3611,30 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
@@ -3011,308 +3644,308 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3327,550 +3960,807 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:J94"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>138</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G100" s="3"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>155</v>
       </c>
-      <c r="H45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
         <v>158</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>160</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>161</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
         <v>162</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>228</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>163</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>164</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B61" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>166</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>229</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B67" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>172</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>173</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>174</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B81" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>178</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>259</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>181</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>182</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>183</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B92" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>185</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>186</v>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3889,282 +4779,282 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
